--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_77.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_77.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_183</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1847507331378299</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
+          <t>[['D', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.124263, 20.058503)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:19.460000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1031468531468532</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'D'], ['E', 'A', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A/3'], ['G', 'C', 'A:min']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.367506, 19.977483), (19.977483, 31.599071)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(126.384, 130.188), (88.497, 92.37)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(33.92, 37.81)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:40.260000', '0:01:46.300000'), ('0:00:42.360000', '0:00:50.360000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:43.660000', '0:01:50.880000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2197802197802198</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09930830039525691</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.874217, 40.885102)]</t>
+          <t>[['F#', 'B', 'B/7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.370997, 16.557573)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.444363', '0:00:11.013666')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:37.936167', '0:00:41.779070')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4553571428571428</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2003577817531306</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
+          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(261.828, 289.808)]</t>
+          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(196.576, 235.306)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:33.940000', '0:00:38.620000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:31.840000', '0:01:43.940000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1804812834224599</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82), (63.6, 66.04)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(76.56, 87.04), (21.58, 29.34)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1583333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5384615384615384</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.162102, 14.073123)]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F'], ['C:7', 'F', 'C']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.78, 31.6), (70.74, 73.74)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.527551, 47.02687), (39.386636, 52.14687)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>jaah_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jaah_46</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02147177419354838</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(24.18, 30.02), (250.3, 255.38)]</t>
+          <t>[['F:7', 'Eb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.86, 9.64), (21.72, 24.96)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:20.120000', '0:00:27.320000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:15.470000', '0:00:20.950000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3789473684210526</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.04, 18.72)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36)]</t>
+          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.302038, 5.439841)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.17907, 21.844739)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.62, 65.56)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.252358, 5.805011)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.8, 31.82), (252.62, 257.6)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08), (18.92, 21.94)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_290</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09870129870129869</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(8.482392, 11.666439)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.56, 21.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
